--- a/data/spring-cloud-shop/shop-goods-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-goods-model_structure.xlsx
@@ -906,9 +906,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>REFUSE</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>NONE_SHELF</t>
   </si>
   <si>
@@ -918,87 +924,81 @@
     <t>$VALUES</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>discountAmount</t>
   </si>
   <si>
     <t>defaultSku</t>
   </si>
   <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>skuName</t>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
     <t>expire</t>
   </si>
   <si>
-    <t>id</t>
+    <t>skuCode</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>skuAmount</t>
   </si>
   <si>
     <t>images</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>skuName</t>
-  </si>
-  <si>
-    <t>skuCode</t>
-  </si>
-  <si>
-    <t>skuAmount</t>
-  </si>
-  <si>
-    <t>discountAmount</t>
-  </si>
-  <si>
-    <t>goodsId</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>uid</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>url</t>
+    <t>spuName</t>
+  </si>
+  <si>
+    <t>classificationId</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>classificationId</t>
-  </si>
-  <si>
-    <t>spuName</t>
-  </si>
-  <si>
     <t>spuImage</t>
   </si>
   <si>
+    <t>skuImage</t>
+  </si>
+  <si>
     <t>skuId</t>
   </si>
   <si>
-    <t>skuImage</t>
-  </si>
-  <si>
     <t>goodsClassId</t>
   </si>
   <si>
@@ -1011,130 +1011,133 @@
     <t>brandGroupName</t>
   </si>
   <si>
+    <t>spuId</t>
+  </si>
+  <si>
     <t>className</t>
   </si>
   <si>
-    <t>spuId</t>
-  </si>
-  <si>
     <t>propertyGroupName</t>
   </si>
   <si>
     <t>ids</t>
   </si>
   <si>
+    <t>bannerThird</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>goodsInventory</t>
+  </si>
+  <si>
+    <t>goodsName</t>
+  </si>
+  <si>
+    <t>bannerFirst</t>
+  </si>
+  <si>
+    <t>detailsImgFourth</t>
+  </si>
+  <si>
+    <t>goodsDetailId</t>
+  </si>
+  <si>
+    <t>gcsId</t>
+  </si>
+  <si>
+    <t>goodsType</t>
+  </si>
+  <si>
+    <t>detailsImgFirst</t>
+  </si>
+  <si>
+    <t>detailsImgThird</t>
+  </si>
+  <si>
     <t>integral</t>
   </si>
   <si>
-    <t>detailsImgFourth</t>
+    <t>detailsImgFifth</t>
+  </si>
+  <si>
+    <t>placeOrigin</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>goodsImg</t>
   </si>
   <si>
     <t>goodsDiscountAmount</t>
   </si>
   <si>
-    <t>bannerThird</t>
-  </si>
-  <si>
     <t>goodsStatus</t>
   </si>
   <si>
-    <t>storage</t>
-  </si>
-  <si>
-    <t>goodsInventory</t>
+    <t>goodsAmount</t>
+  </si>
+  <si>
+    <t>detailsImgSecond</t>
   </si>
   <si>
     <t>activityId</t>
   </si>
   <si>
-    <t>placeOrigin</t>
-  </si>
-  <si>
-    <t>goodsName</t>
-  </si>
-  <si>
-    <t>detailsImgFifth</t>
-  </si>
-  <si>
-    <t>gcsId</t>
-  </si>
-  <si>
-    <t>detailsImgFirst</t>
-  </si>
-  <si>
-    <t>goodsDetailId</t>
-  </si>
-  <si>
-    <t>detailsImgSecond</t>
-  </si>
-  <si>
-    <t>goodsImg</t>
-  </si>
-  <si>
-    <t>detailsImgThird</t>
-  </si>
-  <si>
     <t>bannerSecond</t>
   </si>
   <si>
-    <t>goodsCode</t>
-  </si>
-  <si>
-    <t>bannerFirst</t>
-  </si>
-  <si>
-    <t>goodsType</t>
-  </si>
-  <si>
-    <t>goodsAmount</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
     <t>publishStatus</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>goodsState</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>children</t>
   </si>
   <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
     <t>beginTime</t>
   </si>
   <si>
-    <t>endTime</t>
+    <t>SECOND_KILL</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>FIGHT_GROUP</t>
   </si>
   <si>
     <t>EXCHANGE</t>
   </si>
   <si>
-    <t>FIGHT_GROUP</t>
-  </si>
-  <si>
-    <t>NORMAL</t>
-  </si>
-  <si>
-    <t>SECOND_KILL</t>
-  </si>
-  <si>
-    <t>SPECIAL</t>
-  </si>
-  <si>
     <t>classificationName</t>
   </si>
   <si>
+    <t>REDIS_SPU_PREFIX</t>
+  </si>
+  <si>
     <t>REDIS_CLASSIFICATION_PREFIX</t>
   </si>
   <si>
-    <t>REDIS_SPU_PREFIX</t>
+    <t>goodsTypeName</t>
   </si>
   <si>
     <t>stateName</t>
@@ -1144,9 +1147,6 @@
   </si>
   <si>
     <t>publishStatusName</t>
-  </si>
-  <si>
-    <t>goodsTypeName</t>
   </si>
   <si>
     <t>brandName</t>
@@ -17306,10 +17306,10 @@
         <v>294</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -17334,10 +17334,10 @@
         <v>296</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -17348,10 +17348,10 @@
         <v>297</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -17362,10 +17362,10 @@
         <v>298</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -17379,7 +17379,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -17393,7 +17393,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -17407,7 +17407,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -17435,7 +17435,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -17449,7 +17449,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>71</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13">
@@ -17457,13 +17457,13 @@
         <v>42</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -17477,7 +17477,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -17491,7 +17491,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -17505,7 +17505,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -17519,7 +17519,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -17533,7 +17533,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -17547,7 +17547,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -17561,7 +17561,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -17575,7 +17575,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -17583,13 +17583,13 @@
         <v>75</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23">
@@ -17659,7 +17659,7 @@
         <v>15</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -17667,13 +17667,13 @@
         <v>85</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
@@ -17681,13 +17681,13 @@
         <v>85</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -17695,13 +17695,13 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -17723,13 +17723,13 @@
         <v>95</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -17737,13 +17737,13 @@
         <v>95</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -17757,7 +17757,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
@@ -17765,13 +17765,13 @@
         <v>95</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -17779,7 +17779,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>15</v>
@@ -17793,13 +17793,13 @@
         <v>95</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
@@ -17807,7 +17807,7 @@
         <v>95</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>15</v>
@@ -17821,13 +17821,13 @@
         <v>95</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
@@ -17835,13 +17835,13 @@
         <v>106</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
@@ -17849,13 +17849,13 @@
         <v>106</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -17863,13 +17863,13 @@
         <v>106</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
@@ -17877,13 +17877,13 @@
         <v>106</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>71</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -17905,13 +17905,13 @@
         <v>114</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46">
@@ -17925,7 +17925,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -17933,7 +17933,7 @@
         <v>114</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>15</v>
@@ -17953,7 +17953,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -17961,13 +17961,13 @@
         <v>120</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -17975,13 +17975,13 @@
         <v>120</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
@@ -17989,13 +17989,13 @@
         <v>124</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
@@ -18017,13 +18017,13 @@
         <v>126</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
@@ -18031,13 +18031,13 @@
         <v>130</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -18045,13 +18045,13 @@
         <v>130</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -18059,7 +18059,7 @@
         <v>130</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>15</v>
@@ -18079,7 +18079,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -18101,13 +18101,13 @@
         <v>138</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -18115,13 +18115,13 @@
         <v>138</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -18129,7 +18129,7 @@
         <v>138</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>15</v>
@@ -18143,13 +18143,13 @@
         <v>138</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -18157,13 +18157,13 @@
         <v>138</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64">
@@ -18171,13 +18171,13 @@
         <v>138</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
@@ -18185,13 +18185,13 @@
         <v>138</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -18199,7 +18199,7 @@
         <v>138</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>15</v>
@@ -18213,7 +18213,7 @@
         <v>138</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>15</v>
@@ -18227,13 +18227,13 @@
         <v>138</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69">
@@ -18247,7 +18247,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
@@ -18275,7 +18275,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -18317,7 +18317,7 @@
         <v>15</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -18331,7 +18331,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -18339,13 +18339,13 @@
         <v>138</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77">
@@ -18353,7 +18353,7 @@
         <v>138</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>15</v>
@@ -18387,7 +18387,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -18401,7 +18401,7 @@
         <v>15</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -18409,13 +18409,13 @@
         <v>184</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82">
@@ -18423,13 +18423,13 @@
         <v>184</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -18437,13 +18437,13 @@
         <v>184</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84">
@@ -18451,13 +18451,13 @@
         <v>186</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -18465,13 +18465,13 @@
         <v>186</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -18479,13 +18479,13 @@
         <v>186</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>34</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87">
@@ -18493,13 +18493,13 @@
         <v>186</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88">
@@ -18507,7 +18507,7 @@
         <v>186</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>15</v>
@@ -18521,13 +18521,13 @@
         <v>186</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
@@ -18535,13 +18535,13 @@
         <v>186</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
@@ -18563,13 +18563,13 @@
         <v>196</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>71</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93">
@@ -18577,13 +18577,13 @@
         <v>196</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>306</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94">
@@ -18591,7 +18591,7 @@
         <v>196</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>15</v>
@@ -18605,7 +18605,7 @@
         <v>196</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>15</v>
@@ -18619,13 +18619,13 @@
         <v>200</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97">
@@ -18633,13 +18633,13 @@
         <v>200</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
@@ -18647,13 +18647,13 @@
         <v>200</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
@@ -18661,13 +18661,13 @@
         <v>200</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>306</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
@@ -18675,13 +18675,13 @@
         <v>200</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101">
@@ -18689,7 +18689,7 @@
         <v>200</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>15</v>
@@ -18703,13 +18703,13 @@
         <v>200</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -18717,13 +18717,13 @@
         <v>200</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104">
@@ -18731,13 +18731,13 @@
         <v>200</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105">
@@ -18745,13 +18745,13 @@
         <v>200</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -18759,13 +18759,13 @@
         <v>200</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
@@ -18773,7 +18773,7 @@
         <v>200</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>15</v>
@@ -18787,13 +18787,13 @@
         <v>200</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
@@ -18801,13 +18801,13 @@
         <v>200</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
@@ -18815,13 +18815,13 @@
         <v>200</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
@@ -18829,13 +18829,13 @@
         <v>200</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>205</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112">
@@ -18843,13 +18843,13 @@
         <v>135</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113">
@@ -18857,13 +18857,13 @@
         <v>135</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114">
@@ -18871,13 +18871,13 @@
         <v>135</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -18885,7 +18885,7 @@
         <v>135</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>15</v>
@@ -18913,13 +18913,13 @@
         <v>211</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118">
@@ -18927,13 +18927,13 @@
         <v>211</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -18941,13 +18941,13 @@
         <v>213</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120">
@@ -18955,7 +18955,7 @@
         <v>213</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>15</v>
@@ -18969,7 +18969,7 @@
         <v>213</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
@@ -18983,7 +18983,7 @@
         <v>213</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
@@ -18997,13 +18997,13 @@
         <v>213</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>23</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124">
@@ -19011,13 +19011,13 @@
         <v>213</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>213</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -19025,7 +19025,7 @@
         <v>213</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
@@ -19039,13 +19039,13 @@
         <v>213</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127">
@@ -19067,13 +19067,13 @@
         <v>216</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
@@ -19081,7 +19081,7 @@
         <v>216</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>15</v>
@@ -19095,7 +19095,7 @@
         <v>216</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>15</v>
@@ -19109,13 +19109,13 @@
         <v>216</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132">
@@ -19123,13 +19123,13 @@
         <v>216</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133">
@@ -19151,13 +19151,13 @@
         <v>99</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135">
@@ -19165,13 +19165,13 @@
         <v>99</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136">
@@ -19179,7 +19179,7 @@
         <v>99</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>15</v>
@@ -19193,13 +19193,13 @@
         <v>99</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138">
@@ -19207,13 +19207,13 @@
         <v>99</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
@@ -19221,13 +19221,13 @@
         <v>99</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140">
@@ -19235,13 +19235,13 @@
         <v>99</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141">
@@ -19249,13 +19249,13 @@
         <v>226</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142">
@@ -19263,13 +19263,13 @@
         <v>226</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -19305,13 +19305,13 @@
         <v>229</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146">
@@ -19319,7 +19319,7 @@
         <v>229</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>15</v>
@@ -19333,13 +19333,13 @@
         <v>231</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="148">
@@ -19347,13 +19347,13 @@
         <v>231</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -19361,7 +19361,7 @@
         <v>231</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>15</v>
@@ -19375,13 +19375,13 @@
         <v>231</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151">
@@ -19389,13 +19389,13 @@
         <v>231</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
@@ -19403,7 +19403,7 @@
         <v>234</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>15</v>
@@ -19417,13 +19417,13 @@
         <v>234</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
@@ -19431,13 +19431,13 @@
         <v>234</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155">
@@ -19451,7 +19451,7 @@
         <v>15</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156">
@@ -19459,13 +19459,13 @@
         <v>234</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
@@ -19473,7 +19473,7 @@
         <v>234</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>15</v>
@@ -19487,7 +19487,7 @@
         <v>234</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>15</v>
@@ -19501,13 +19501,13 @@
         <v>234</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160">
@@ -19515,7 +19515,7 @@
         <v>234</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>15</v>
@@ -19529,13 +19529,13 @@
         <v>234</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -19543,13 +19543,13 @@
         <v>234</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -19557,13 +19557,13 @@
         <v>234</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
@@ -19571,13 +19571,13 @@
         <v>234</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165">
@@ -19585,13 +19585,13 @@
         <v>234</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>17</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166">
@@ -19599,13 +19599,13 @@
         <v>234</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167">
@@ -19613,13 +19613,13 @@
         <v>234</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -19627,7 +19627,7 @@
         <v>234</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>15</v>
@@ -19641,13 +19641,13 @@
         <v>234</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170">
@@ -19655,13 +19655,13 @@
         <v>234</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -19669,13 +19669,13 @@
         <v>234</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172">
@@ -19683,7 +19683,7 @@
         <v>234</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>15</v>
@@ -19697,13 +19697,13 @@
         <v>234</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174">
@@ -19711,13 +19711,13 @@
         <v>234</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175">
@@ -19725,13 +19725,13 @@
         <v>234</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176">
@@ -19739,13 +19739,13 @@
         <v>234</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177">
@@ -19753,13 +19753,13 @@
         <v>245</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178">
@@ -19767,13 +19767,13 @@
         <v>245</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="179">
@@ -19795,13 +19795,13 @@
         <v>245</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181">
@@ -19809,13 +19809,13 @@
         <v>247</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>71</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182">
@@ -19837,13 +19837,13 @@
         <v>247</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184">
@@ -19851,13 +19851,13 @@
         <v>247</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>305</v>
+        <v>376</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185">
@@ -19865,13 +19865,13 @@
         <v>253</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186">
@@ -19879,13 +19879,13 @@
         <v>253</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -19893,13 +19893,13 @@
         <v>253</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188">
@@ -19949,13 +19949,13 @@
         <v>257</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192">
@@ -19963,13 +19963,13 @@
         <v>257</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -19977,13 +19977,13 @@
         <v>257</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>306</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194">
@@ -19991,13 +19991,13 @@
         <v>261</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="195">
@@ -20011,7 +20011,7 @@
         <v>15</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
@@ -20019,13 +20019,13 @@
         <v>261</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197">
@@ -20033,13 +20033,13 @@
         <v>261</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
@@ -20047,7 +20047,7 @@
         <v>261</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>15</v>
@@ -20061,7 +20061,7 @@
         <v>261</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>15</v>
@@ -20075,13 +20075,13 @@
         <v>263</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201">
@@ -20089,13 +20089,13 @@
         <v>263</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202">
@@ -20117,13 +20117,13 @@
         <v>263</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204">
@@ -20145,13 +20145,13 @@
         <v>267</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="206">
@@ -20159,13 +20159,13 @@
         <v>269</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207">
@@ -20173,13 +20173,13 @@
         <v>269</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="208">
@@ -20187,13 +20187,13 @@
         <v>269</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209">
@@ -20201,13 +20201,13 @@
         <v>269</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
@@ -20215,13 +20215,13 @@
         <v>269</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="211">
@@ -20229,7 +20229,7 @@
         <v>269</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>15</v>
@@ -20243,13 +20243,13 @@
         <v>275</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213">
@@ -20257,13 +20257,13 @@
         <v>275</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="214">
@@ -20271,13 +20271,13 @@
         <v>275</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215">
@@ -20313,13 +20313,13 @@
         <v>280</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>34</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218">
@@ -20327,13 +20327,13 @@
         <v>280</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="219">
@@ -20355,13 +20355,13 @@
         <v>280</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
@@ -20383,7 +20383,7 @@
         <v>280</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>15</v>
@@ -20397,7 +20397,7 @@
         <v>280</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>15</v>
@@ -20411,13 +20411,13 @@
         <v>282</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D224" t="s" s="0">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="225">
@@ -20425,13 +20425,13 @@
         <v>282</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226">
@@ -20453,13 +20453,13 @@
         <v>282</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D227" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="228">
@@ -20467,7 +20467,7 @@
         <v>282</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>15</v>
@@ -20495,13 +20495,13 @@
         <v>284</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="231">
@@ -20509,13 +20509,13 @@
         <v>286</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>306</v>
+        <v>53</v>
       </c>
     </row>
     <row r="232">
@@ -20523,13 +20523,13 @@
         <v>286</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>17</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233">
@@ -20537,13 +20537,13 @@
         <v>286</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
